--- a/simplified_job_info_gpt3.xlsx
+++ b/simplified_job_info_gpt3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,27 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Benefícios</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Destinatários</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Áreas de Atuação</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Responsabilidades</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Nome do Arquivo</t>
         </is>
       </c>
     </row>
@@ -504,22 +514,32 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>100% remota</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>R$ 3000,00 (contrato de estágio) + R$ 900,00 em um cartão de benefícios flexíveis</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>Jovens</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Engenharia de Software</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Desenvolver produtos de software, adquirir conhecimento em tecnologias modernas.</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Conhecimento em stacks de tecnologia, desenvolvimento de produtos de software, influenciar o desenvolvimento de produto.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>vaga1.txt</t>
         </is>
       </c>
     </row>
@@ -541,7 +561,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AWS, CI/CD, Comunicação, Comunicação, Dados, Estruturas de dados, Java, Java, Java/Kotlin, JavaScript, Javascript, Kotlin, Kotlin, Liderança, Problemas, Python, Python, Rest, TypeScript</t>
+          <t>AWS, Cloud, Comunicação, Comunicação, Java, Java, Java/Kotlin, JavaScript, Javascript, Kotlin, Kotlin, Liderança, Node, Problemas, Python, Python, TypeScript</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -551,18 +571,28 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Flexível e sustentável</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+          <t>Flexível</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Vale Alimentação, Vale Refeição, Auxílio Pet, Plano de Saúde, Plano Odontológico, Seguro de Vida, Previdência, Gympass, Auxílio Babá, Auxílio Creche, PLR, Desconto em produtos.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Desenvolvimento de Plataforma de Crédito, Produtos Digitais Financeiros</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Desenvolvimento de soluções em nuvem, liderança técnica, participação no desenho da arquitetura, desenvolvimento de código de alta qualidade, investigação e resolução de problemas técnicos, atualização sobre tendências tecnológicas, colaboração com equipes multifuncionais, entre outros.</t>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Desenvolvimento de soluções em nuvem, liderança técnica, participação em definições de novas features, colaboração com equipes multifuncionais, entre outros.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>vaga10.txt</t>
         </is>
       </c>
     </row>
@@ -599,17 +629,27 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>Vale alimentação, vale refeição, day off de aniversário, participação nos lucros, seguro de vida, vale transporte, clube de saúde</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>Marketing, Administração, Engenharia, Engenharias</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Data &amp; Analytics</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Participar de reuniões, implementar e gerir tags de Digital Analytics, criar e manter bases de dados, planejar métricas, auxiliar na confecção de dashboards e relatórios.</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Participar de reuniões, implementar e gerenciar plataformas de Digital Analytics, criar bases de dados, criar documentos instrutivos, planejar métricas, desenvolver análises para clientes.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Vaga11.pdf</t>
         </is>
       </c>
     </row>
@@ -631,7 +671,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Curioso, Questionador, Questionador</t>
+          <t>Curioso, Disponibilidade para jornada de 4h ou 6h diárias, Questionador, Questionador, Ser curioso</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -644,15 +684,25 @@
           <t>4h ou 6h diárias</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Diversas áreas do banco (Tecnologia, Comunicação, Riscos, Jurídico, Atacado)</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Não mencionados</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Participar de projetos importantes para o banco, aprender com a liderança, interagir em equipe.</t>
+          <t>Diversas áreas, incluindo Tecnologia, Comunicação, Riscos, Jurídico e Atacado</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Participar de projetos importantes para o banco, interagir com a liderança, aprender na Academia Santander</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Vaga12.pdf</t>
         </is>
       </c>
     </row>
@@ -687,15 +737,25 @@
           <t>Não especificada</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Auxílio Home Office, Benefício Flexível, TotalPass, Vittude, Crescimento Profissional Contínuo, Dia de folga no aniversário</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
         <is>
           <t>Desenvolvimento Backend</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Desenvolver aplicações Java, colaborar com a equipe de desenvolvimento, documentar sistemas e aplicações, resolver problemas das aplicações, trabalhar com metodologia ágil Scrum.</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Desenvolvimento de aplicações Java, colaboração em fases do ciclo de vida do software, documentação técnica, resolução de problemas, trabalho com metodologia ágil Scrum.</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Vaga13.pdf</t>
         </is>
       </c>
     </row>
@@ -707,7 +767,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Estágio em TI</t>
+          <t>Estágio em TI - Desenvolvimento</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -717,7 +777,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cloud, Dados, DB2, Genexus, Inglês, Java, Java, Programação</t>
+          <t>DB2, Genexus, Inglês, Java, Java</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -727,25 +787,35 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Modelo virtual de trabalho, presencial na Honda Morumbi 1x por mês</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+          <t>Não especificada</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Vale Refeição, Plano de Saúde, Seguro de Vida, Vale Transporte, Estacionamento</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
         <is>
           <t>Desenvolvimento de software e projetos de sistemas</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Organização da entrega contínua de produtos de software, aplicação de melhorias práticas e técnicas de codificação, gestão de fornecedores externos.</t>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Apoio na entrega de produtos de software, Aplicação de melhorias técnicas, Gestão de fornecedores externos</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Vaga14.pdf</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Radix Engenharia e Software</t>
+          <t>Radix</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -760,7 +830,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Comunicação, Comunicação, Conhecimento em Python, Engenharia, Java, Java, JavaScript, Javascript, MongoDB, Python, Python, React.js</t>
+          <t>Conhecimento em Python, Java, Java, JavaScript, Javascript, MongoDB, Python, Python</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -773,15 +843,29 @@
           <t>Estágio 30h</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Plano de Saúde, Odontológico, Gympass, Auxílio home office, VR/VA, Day off de aniversário, Universidade Corporativa, Convênio com instituições de ensino e cursos de idiomas, Programa de treinamentos internos</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>Sistemas de Informação, Engenharia de Software, Engenharia</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>Desenvolvimento de Software</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Desenvolvimento e manutenção de infraestrutura backend, suporte a bancos de dados MongoDB, desenvolvimento de interfaces de usuário, colaboração em equipe, participação em reuniões e brainstorming, organização da documentação técnica.</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Desenvolvimento e manutenção de infraestrutura backend, suporte a bancos de dados, desenvolvimento de interfaces de usuário, colaboração com a equipe, participação em reuniões e brainstorming, organização da documentação técnica.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Vaga15.pdf</t>
         </is>
       </c>
     </row>
@@ -793,7 +877,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Estágio 2024 Atacado</t>
+          <t>Estágio Atacado</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -816,15 +900,25 @@
           <t>30 horas semanais</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Não especificado</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Atacado</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Participar do propósito do Bradesco, atender investidores institucionais e clientes private banking.</t>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Desenvolver-se em diversas áreas, atuar ao lado de experts, criar oportunidades para pessoas e empresas, atender investidores institucionais.</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Vaga16.pdf</t>
         </is>
       </c>
     </row>
@@ -856,18 +950,28 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>não especificada</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Comércio Exterior, Logística, Administração</t>
-        </is>
-      </c>
+          <t>Não especificada</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Vale Transporte, Vale Refeição, Wellhub (gympass)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
+          <t>Comércio Exterior, Logística, Relações Internacionais</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>Acompanhamento do fluxo de exportação, preparação de documentos, acompanhamento de coletas, responsável pelo fluxo de pagamentos.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Vaga17.pdf</t>
         </is>
       </c>
     </row>
@@ -904,17 +1008,27 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>Bolsa estágio, vale alimentação/refeição, Gympass, plano de saúde e odontológico, acesso a plataforma de cursos Alura, Sesc</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>Marketing, Relações Públicas</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Marketing, Branding, Mídias Sociais</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Auxiliar na criação de estratégias de mídias sociais, criar conteúdo, gerenciar campanhas, analisar desempenho, identificar tendências, otimizar interação.</t>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Auxiliar na concepção e entrega de estratégias de mídia social, criar planejamento de postagens, gerenciar campanhas de marketing, analisar desempenho em plataformas de mídia social, identificar tendências de consumo, otimizar conteúdo para interação da comunidade.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Vaga18.pdf</t>
         </is>
       </c>
     </row>
@@ -936,7 +1050,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Comunicação, Comunicação, Dados, Engenharia, Excel, Proatividade, Proatividade</t>
+          <t>Dados, Engenharia</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -949,15 +1063,25 @@
           <t>Não especificada</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Consultoria, Estratégia, Inteligência, Inovação</t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Não especificados</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Auxiliar na formulação e implementação de estratégias corporativas, conduzir pesquisas de mercado, elaborar apresentações executivas, gestão de informações do projeto, análise financeira e estratégica de empresas, suporte em projetos de consultoria.</t>
+          <t>Consultoria, Estratégia, Inteligência</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Auxiliar na formulação e implementação de estratégias corporativas, conduzir pesquisas de mercado, elaborar apresentações executivas, organizar e gerenciar informações do projeto, realizar análises financeiras e estratégicas, participar ativamente de projetos de consultoria.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Vaga19.pdf</t>
         </is>
       </c>
     </row>
@@ -979,7 +1103,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Lógica, NET, Programação</t>
+          <t>Lógica, Programação</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -989,18 +1113,32 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Não especificada</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>Mínimo de 2 meses</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Tutor acompanhando estagiários, participação de qualquer lugar do Brasil</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Automation, Discovery, Dev Team</t>
+          <t>Curso Superior</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>Automation</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>Desenvolver automações, construir telas, programar em Python, criar processos padronizados, lidar com produtos financeiros, prestar suporte, negociar prioridades, documentar processos, acompanhar mapeamento de processos, desenvolver soluções de alto impacto, garantir estabilidade das soluções.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>vaga2.txt</t>
         </is>
       </c>
     </row>
@@ -1035,15 +1173,29 @@
           <t>Não especificada</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Plano de saúde, plano odontológico, benefício Flash Flex, PPR, licença maternidade e paternidade, ArquiKids, auxílio creche, Gympass, seguro de vida, trabalho remoto, ambiente de aprendizagem, aulas online de Yoga, Meditação e Ginástica Laboral</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Marketing, engenharia, administração, data science</t>
+          <t>Marketing, Administração, Engenharia</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Planejamento, implementação e análise de desempenho de comunicações, criação de conteúdo, desenvolvimento de relatórios, contribuição para geração de demanda e melhoria de métricas de CRM.</t>
+          <t>Marketing Digital</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Planejamento, implementação e análise de desempenho de réguas de comunicação e campanhas, criação de conteúdo, desenvolvimento de relatórios de performance, aumento da representatividade de CRM na geração de demanda.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Vaga20.pdf</t>
         </is>
       </c>
     </row>
@@ -1055,12 +1207,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Engenheiro(a) de Dados</t>
+          <t>Estágio Engenheiro(a) de Dados</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Remoto</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1075,18 +1227,28 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Não especificado</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
+          <t>Não especificada</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Não especificados</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
         <is>
           <t>Engenharia de Dados</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Modelagem, coleta, limpeza e transformação de dados, suporte na construção e manutenção de pipelines de dados, colaboração com equipes multidisciplinares, participação na criação e otimização de bancos de dados, entre outras.</t>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Modelagem, coleta, limpeza e transformação de dados, suporte na construção de pipelines de dados, modelagem de dados para soluções de GenAI, colaboração com equipes multidisciplinares, criação e otimização de bancos de dados, entre outros.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Vaga21.pdf</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1270,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Capacidade de comunicação, Comunicação, Comunicação, Engenharia, Inglês, Marketing, Matemática, Problemas</t>
+          <t>Inglês</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1121,15 +1283,25 @@
           <t>30 horas semanais</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Mídias de Performance</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Gympass, horário flexível, incentivos à capacitação</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Gestão de mídias pagas, acompanhamento e mensuração de resultados, análises de dados, elaboração de planejamentos, gerenciamento de operações, contribuição para otimização de marketing integrado, auxílio em projetos simultâneos.</t>
+          <t>Marketing Digital</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Gestão de mídias pagas, análise de resultados, elaboração de planejamento, gerenciamento de operações, auxílio em projetos simultâneos.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Vaga22.pdf</t>
         </is>
       </c>
     </row>
@@ -1161,22 +1333,32 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>100% Remoto</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>Vale-alimentação/refeição, Auxílio Home Office, Bônus anual, Voucher para Kit Setup, Day Off aniversário, Parcerias e descontos</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
           <t>Direito</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Suporte Jurídico</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Prestar suporte a tickets, identificar erros, proporcionar boa experiência aos clientes</t>
+          <t>Suporte</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Prestar suporte a tickets, analisar erros, proporcionar melhor experiência aos clientes.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Vaga23.pdf</t>
         </is>
       </c>
     </row>
@@ -1211,15 +1393,29 @@
           <t>Estágio 30h</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Plano de Saúde, Odontológico, Gympass, Auxílio home office, VR ou VA, Day off de aniversário, Universidade Corporativa, Convênio com instituições de ensino e cursos de idioma, Programa de treinamentos internos</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Design</t>
+          <t>Design Gráfico</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Criar interfaces e experiências inovadoras, participar de testes com usuários, realizar testes de aceitação, desenvolver interfaces funcionais, entre outras.</t>
+          <t>UI/UX Design</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Criar interfaces e experiências inovadoras, Maximizar tempo de desenvolvimento, Participar de diferentes tipos de projetos, Realizar testes de aceitação, Contribuir para o nível de excelência da equipe de Design.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Vaga24.pdf</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1427,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Vendedor</t>
+          <t>Assistente de Cobrança</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1241,7 +1437,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Comunicação, Comunicação, Git, Marketing</t>
+          <t>Comunicação, Comunicação</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1255,36 +1451,42 @@
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Inside Sales</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Conduzir processo comercial, desenvolver relacionamentos com clientes, manter registros de atividades de vendas, observar métricas e indicadores.</t>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Contato com clientes inadimplentes, negociação de pagamento, controle de faturamentos, emissão de boletos e notas fiscais.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Vaga25.pdf</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Galapagos</t>
+          <t>V4 Company</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Estágio de Férias em Marketing</t>
+          <t>Vendedor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>São Paulo (SP)</t>
+          <t>Campinas (SP)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Comunicação, Comunicação, Git, Marketing, Proatividade, Proatividade</t>
+          <t>Comunicação, Comunicação, Git, Marketing</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1294,44 +1496,50 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6h/dia</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Marketing, Publicidade e Propaganda</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Marketing, Publicidade e Propaganda</t>
-        </is>
-      </c>
+          <t>Ambiente vibrante, possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills, acesso a Staage, plano de saúde e odontológico, seguro de vida</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Criação de materiais gráficos, pesquisa de tendências, desenvolvimento de campanhas, produção de conteúdo, planejamento de mídia, pesquisa de mercado, brainstorming, eventos.</t>
+          <t>Inside Sales</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Conduzir processo comercial, executar sequências de contato, desenvolver relacionamentos com clientes em potencial, manter registros de atividades de vendas, observar métricas e indicadores.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Vaga26.pdf</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Radix</t>
+          <t>V4 Company</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Estágio em Engenharia Química</t>
+          <t>Assistente de Contas a Pagar</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>São Paulo (SP)</t>
+          <t>Campinas (SP)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dados, Engenharia, Inglês, Inglês avançado</t>
+          <t>Contabilidade</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1341,34 +1549,40 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>30h</t>
+          <t>Não especificada</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Engenharia</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Desenvolvimento de software para a indústria de Química e Petroquímica</t>
-        </is>
-      </c>
+          <t>Possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills, acesso ao Staage, plano de saúde e odontológico, seguro de vida</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Atuar em projetos de desenvolvimento de software, discutir e transcrever requisitos em inglês, apoiar o time de desenvolvimento, analisar e solucionar problemas.</t>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Processamento eficiente e oportuno de pagamentos, revisão de faturas, conciliações bancárias, relacionamento com fornecedores, manutenção de sistema de arquivamento, colaboração em auditorias, garantia do cumprimento de políticas financeiras e regulatórias.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Vaga27.pdf</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>L.E.K. Consulting</t>
+          <t>Bain &amp; Company</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Estágio</t>
+          <t>Associate Consultant Intern</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1384,38 +1598,52 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Não especificada</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Consultoria de alta gestão</t>
-        </is>
-      </c>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Não especificados</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Não especificadas</t>
+          <t>Consultoria</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Trabalhar em equipe de casos, entrevistar clientes, identificar fontes de informação, apresentar descobertas.</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Vaga28.pdf</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Accenture</t>
+          <t>V4 Company</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Estágio GENEW</t>
+          <t>Analista de Sucesso do Cliente</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>São Paulo (SP)</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>Campinas (SP)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Comunicação, Comunicação</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>A combinar</t>
@@ -1426,32 +1654,42 @@
           <t>Não especificada</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Engenharias, Administração, Economia, Relações Internacionais, Design, Marketing, Comunicação, Ciências da Computação, Sistemas da Informação, Análise e Desenvolvimento de Sistemas, Matemática, Estatística e áreas afins</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Ambiente vibrante, possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills, acesso ao Staage, plano de saúde e odontológico, seguro de vida</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Participar de projetos, elaborar estratégias, trabalhar com tecnologias, atuar em diferentes indústrias e clientes.</t>
+          <t>Customer Success, Customer Experience, Marketing Digital</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Desenvolver e manter relacionamentos com os clientes, entender metas e objetivos dos clientes, resolver problemas dos clientes, colaborar com equipes internas, promover a melhor experiência aos clientes, gerenciar reclamações e fidelizar clientes.</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Vaga29.pdf</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>L.E.K. Consulting</t>
+          <t>Bain &amp; Company</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Estágio de Verão</t>
+          <t>ACI - Associate Consultant Intern (estágio regular - 6 a 12 meses)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>São Paulo (SP)</t>
+          <t>Remoto</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1465,37 +1703,51 @@
           <t>Não especificada</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Não especificados</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Estratégia Corporativa e Financeira, Estratégia Digital, Marketing e Vendas, Serviços Transacionais, Operações e Organizações</t>
+          <t>Formados</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Participar do processo seletivo, participar de Webinars, realizar provas.</t>
+          <t>Consultoria estratégica</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Trabalhar em equipe em projetos de grande impacto, coleta e interpretação de dados, entrevistar stakeholders, supervisionar colegas.</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>vaga3.txt</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Banco ABC Brasil S/A</t>
+          <t>V4 Company</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Estagiário(a) na área de macroeconomia/tesouraria</t>
+          <t>Analista de Treinamento</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>São Paulo (SP)</t>
+          <t>Campinas (SP)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dados, Engenharia, Inglês, Inglês avançado, Matemática</t>
+          <t>Comunicação, Comunicação</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1505,42 +1757,48 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Horário de estágio a combinar, preferencialmente das 09h às 16h, presencial</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Macroecnomia/Tesouraria</t>
-        </is>
-      </c>
+          <t>Não especificada</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Ambiente vibrante, possibilidade de sociedade, gestão meritocrática, aulas de inglês, Gympass, acesso ao G4 Skills, acesso ao Staage, plano de saúde e odontológico, seguro de vida.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Construção e manutenção de base de dados e modelos econométricos, auxílio a análises para as mesas de Trading &amp; ALM, otimização de modelos de projeção econométricos, automatizar rotinas, planilhas e apresentações do departamento econômico e da tesouraria.</t>
+          <t>Educação</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Prestar suporte aos clientes, propor soluções de desenvolvimento, atualizar e analisar indicadores de capacitação, organizar a operacionalização das turmas, acompanhar aulas online.</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Vaga30.pdf</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Eneva</t>
+          <t>Mirow &amp; Co</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Estágio</t>
+          <t>Business Analyst Intern</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>São Paulo (SP)</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Dados, Engenharia, Matemática</t>
-        </is>
-      </c>
+          <t>Rio de Janeiro (RJ), São Paulo (SP)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>A combinar</t>
@@ -1548,30 +1806,40 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6h/dia</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Backoffice, Novos Negócios e Portfólio</t>
-        </is>
-      </c>
+          <t>não especificada</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>não mencionados</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Desenvolver habilidades e vivenciar o dia a dia do negócio da empresa</t>
+          <t>planejamento estratégico, supply chain, desenvolvimento de novos produtos</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>desenvolvimento de habilidades analíticas, participação em projetos da empresa.</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Vaga31.pdf</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>Grupo Ri Happy</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Estagiário(a) de Business Partner</t>
+          <t>Estágio Administrativo Financeiro na Área de Expansão de Lojas</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1581,7 +1849,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Inglês, Pacote Office</t>
+          <t>Engenharia, Excel, Pacote Office</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1591,34 +1859,40 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6hs diárias</t>
+          <t>6 horas diárias de segunda-feira a sexta-feira</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Psicologia</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Business Partner, Consultoria Tributária</t>
-        </is>
-      </c>
+          <t>Auxílio-refeição, auxílio-alimentação, vale-transporte, desconto em produtos, seguro de vida, convênio com o Gympass e parceria com a ZenClub.</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Apoio no Onboarding, suporte em relatórios, cadastro de informações, acompanhamento de pendências, atendimento aos clientes internos</t>
+          <t>Administração Financeira e Expansão de Lojas</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Auxiliar nas rotinas administrativas e financeiras, controle de pagamentos, conferência de dados financeiros, análise de desempenho financeiro dos contratos, cumprimento dos fluxos de procedimentos administrativos e financeiros, suporte nas atividades da área.</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Vaga32.pdf</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Honda</t>
+          <t>VERT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Controle de Qualidade</t>
+          <t>Estágio em DCM - Estruturação</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1628,7 +1902,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Engenharia, Inglês, Inglês avançado, Pacote Office</t>
+          <t>Inglês, Pacote Office</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1638,46 +1912,52 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Flexível</t>
+          <t>Híbrido (1 a 3 vezes por semana no escritório)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Plano de Saúde, Plano Odontológico, Auxílio Bem-estar, VR/VA, Day Off, Seguro de Vida</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Controle de Qualidade</t>
+          <t>Direito</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Auxiliar os analistas da área, Follow ups das ocorrências, Elaboração de relatórios, Emissão de controle de lote.</t>
+          <t>DCM, Estruturação, Mercado Financeiro, Mercado de Capitais</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Suporte operacional e administrativo, participação em processo de originação e distribuição de ativos financeiros, participação em calls, uso de ferramentas do time de DCM, habilidades de resolução de problemas, comunicação em equipe, análise crítica, flexibilidade, organização e atenção aos detalhes.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Vaga33.pdf</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Eneva</t>
+          <t>Fundação Estudar</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Estágio</t>
+          <t>Summer Job Voluntário</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>São Paulo/SP</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Dados, Engenharia, Matemática</t>
-        </is>
-      </c>
+          <t>São Paulo (SP)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>A combinar</t>
@@ -1685,40 +1965,50 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>6h/dia</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Backoffice, Novos Negócios, Portfólio</t>
-        </is>
-      </c>
+          <t>5 semanas</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Experiência profissional voluntária, networking, desenvolvimento de habilidades, mentoria de carreira, premiações</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Desenvolver habilidades e vivenciar o dia a dia do negócio, participar do programa de desenvolvimento e mentoria</t>
+          <t>Comercial, gestão de projetos, divulgação</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Vendas, operações, divulgação</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Vaga34.pdf</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>V4 Company</t>
+          <t>Galapagos</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Assistente de Contas a Pagar</t>
+          <t>Estágio de Férias em Marketing</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Campinas (SP)</t>
+          <t>São Paulo (SP)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Capacidade analítica</t>
+          <t>Comunicação, Comunicação, Git, Marketing, Proatividade, Proatividade</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1728,30 +2018,44 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Não especificada</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>6h/dia</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Bolsa Auxílio, Certificado de horas</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing, Publicidade e Propaganda</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Processar pagamentos, revisar faturas, conciliar extratos bancários, manter arquivos organizados.</t>
+          <t>Marketing, Publicidade, Design Gráfico</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Criação de materiais gráficos, pesquisa de tendências, desenvolvimento de campanhas, produção de conteúdo, planejamento de mídia, pesquisa de mercado, brainstorming e briefings, eventos.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Vaga35.pdf</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bank of America</t>
+          <t>Radix</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Corporate Banking Intern</t>
+          <t>Estágio em Engenharia Química</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1759,7 +2063,11 @@
           <t>São Paulo (SP)</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Engenharia, Inglês, Inglês avançado, Problemas</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>A combinar</t>
@@ -1767,30 +2075,44 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Não especificada</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>30h</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Plano de Saúde, Odontológico, Médico da empresa, Gympass, Auxílio home office, VR e/ou VA, Day off de aniversário, Universidade Corporativa</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Corporate Banking</t>
+          <t>Química, Engenharia Química, Engenharia</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Fornecer uma ampla gama de produtos relacionados a empréstimos e serviços financeiros para grandes empresas. Construir relacionamentos de longo prazo com grandes corporações e instituições financeiras. Fornecer produtos e serviços relacionados às atividades de empréstimo entre um banco e seus clientes.</t>
+          <t>Engenharia, Tecnologia da Informação, Química</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Atuar em projetos de desenvolvimento de software para a indústria de Química e Petroquímica, discutir, entender e transcrever requisitos em inglês, apoiar o time de desenvolvimento, analisar e solucionar problemas.</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Vaga36.pdf</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Safra</t>
+          <t>L.E.K. Consulting</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Estágio em Qualidade (Analytics e Dados)</t>
+          <t>Estágio</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1798,11 +2120,7 @@
           <t>São Paulo (SP)</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Engenharia, SQL</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>A combinar</t>
@@ -1813,32 +2131,42 @@
           <t>Não especificada</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Qualidade, Analytics e Dados</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Não mencionados</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Auxiliar na apuração e construção de Dashboard em Power BI, auxiliar na criação de novas pesquisas (SQL, Phyton e PySpark), auxiliar no mapeamento da experiência do cliente.</t>
+          <t>Estratégia Corporativa e Financeira, Estratégia Digital, Marketing e Vendas, Serviços Transacionais, Operações e Organizações</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Compor o time, participar dos Webinars, realizar provas.</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Vaga37.pdf</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Agibank</t>
+          <t>Accenture</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Comercial</t>
+          <t>Estágio</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Campinas (SP)</t>
+          <t>São Paulo (SP)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1852,27 +2180,37 @@
           <t>Não especificada</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Comercial</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Não especificados</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Não especificadas</t>
+          <t>Engenharias, Administração, Economia, Relações Internacionais, Design, Marketing, Comunicação, Ciências da Computação, Sistemas da Informação, Análise e Desenvolvimento de Sistemas, Matemática, Estatística e áreas afins</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Participar de projetos, elaborar estratégias, trabalhar com tecnologias, atuar em diferentes indústrias e clientes, desenvolvimento contínuo ao lado de profissionais experientes.</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Vaga38.pdf</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Bain &amp; Company</t>
+          <t>L.E.K. Consulting</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Associate Consultant Intern</t>
+          <t>Estágio de Verão</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1891,37 +2229,47 @@
           <t>Não especificada</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Consulting industry, business strategy</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Não especificados</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Work on a case team, interview clients' customers, competitors, suppliers and employers, own and identify information sources, gather and interpret data, execute analysis, present findings to case team members and client stakeholders.</t>
+          <t>Estratégia Corporativa e Financeira, Estratégia Digital, Marketing e Vendas, Serviços Transacionais, Operações e Organizações</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Compor o time, participar dos Webinars e provas.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Vaga39.pdf</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>V4 Company</t>
+          <t>A +A Educação</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Analista de Sucesso do Cliente</t>
+          <t>Estágio em Talent Acquisition (Atração e Seleção)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Campinas (SP)</t>
+          <t>Remoto</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Comunicação, Comunicação</t>
+          <t>Comunicação, Comunicação, Pacote Office, Proatividade, Proatividade</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1934,37 +2282,51 @@
           <t>Não especificada</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Vale Refeição, Vale Transporte, TotalPass (convênio de academias), folga no mês do aniversário, desconto em livros</t>
+        </is>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Customer Success, Customer Experience, Marketing Digital</t>
+          <t>Superior em andamento</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Desenvolver e manter relacionamentos com clientes, entender metas e objetivos dos clientes, resolver problemas dos clientes, colaborar com equipes internas, promover a melhor experiência aos clientes, gerenciar reclamações, diminuir taxas de churn.</t>
+          <t>Recursos Humanos, Atração e Seleção</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Encontrar, qualificar e nutrir relacionamento com talentos, mapeamento de talentos, divulgação de vagas, entrevistas, admissão de colaboradores, People Analytics, gerir plataformas de seleção.</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>vaga4.txt</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>V4 Company</t>
+          <t>Banco ABC</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Analista de Treinamento Júnior</t>
+          <t>Estagiário(a) em macroeconomia/tesouraria</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Campinas (SP)</t>
+          <t>São Paulo (SP)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Comunicação, Comunicação</t>
+          <t>Dados, Engenharia, Inglês, Inglês avançado, Matemática, Programação</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1974,38 +2336,52 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Não especificada</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Treinamento e Desenvolvimento</t>
-        </is>
-      </c>
+          <t>Horário a combinar, preferencialmente das 09h às 16h, presencial</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Assistência Médica, Seguro de Vida, Vale Refeição, Vale Transporte, Auxílio Home Office, Totalpass</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Prestar suporte para os clientes, propor soluções de desenvolvimento, atualizar e analisar indicadores, organizar operacionalização das turmas.</t>
+          <t>Macroecomonmia/Tesouraria</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Construção e manutenção de base de dados e modelos econométricos, auxílio em análises para as mesas de Trading &amp; ALM, otimização de modelos de projeção econométricos, automatização de rotinas, planilhas e apresentações do departamento econômico e da tesouraria.</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Vaga40.pdf</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mirow &amp; Co</t>
+          <t>Eneva</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Business Analyst Intern</t>
+          <t>Estágio</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Rio de Janeiro (RJ), São Paulo (SP)</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>São Paulo (SP)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Dados, Engenharia, Matemática</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>A combinar</t>
@@ -2013,30 +2389,40 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Não especificada</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Consultoria estratégica</t>
-        </is>
-      </c>
+          <t>6h/dia</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Bolsa auxílio, Plano de Saúde, Plano Odontológico, Vale Refeição, Vale Transporte ou transporte fornecido pela empresa, Seguro de Vida, Gympass, Cartão Presente de Natal, Programa de Qualidade de Vida</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Influenciar as entregas dos projetos, desenvolver habilidades analíticas</t>
+          <t>Backoffice, Novos Negócios e Portfólio</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Desenvolver habilidades importantes, vivenciar o dia a dia do negócio da empresa, colaborar de forma inovadora e resiliente.</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Vaga41.pdf</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Grupo Ri Happy</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Estágio Administrativo Financeiro na Área de Expansão de Lojas</t>
+          <t>Estagiário(a) de Business Partner</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2046,7 +2432,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Comunicação, Comunicação, Engenharia, Excel, Pacote Office, Proatividade, Proatividade</t>
+          <t>Inglês, Pacote Office</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2056,40 +2442,50 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>6 horas diárias, segunda a sexta</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Administrativo e Financeiro</t>
-        </is>
-      </c>
+          <t>6 horas diárias em horário comercial</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Plataformas online de aprendizado, plataforma de idiomas, Universidade Corporativa, plano de mentoria, dia de folga no mês do aniversário, serviço de telemedicina, canal de apoio psicológico, assistência médica e odontológica, auxílio-internet, vale refeição/alimentação</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Auxiliar em rotinas administrativas e financeiras, controle de pagamentos, conferência de dados financeiros, análise de desempenho financeiro dos contratos, cumprimento dos fluxos de procedimentos administrativos e financeiros, suporte nas atividades da área.</t>
+          <t>Administração, Consultoria Tributária</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Apoio no Onboarding de estagiários/staff, suporte em relatórios, cadastro de informações e atualizações da área, acompanhamento e cobranças de pendências, atendimento e suporte aos clientes internos.</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Vaga42.pdf</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>VERT</t>
+          <t>Honda</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Estágio em DCM - Estruturação</t>
+          <t>Estágio Controle de Qualidade</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>São Paulo (SP)</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Inglês, Pacote Office</t>
+          <t>Engenharia, Inglês, Inglês avançado, Pacote Office</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2099,42 +2495,56 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Híbrido (1 a 3 vezes na semana no escritório)</t>
+          <t>Flexível</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Direito</t>
+          <t>Vale Refeição, Plano de Saúde, Seguro de Vida, Vale Transporte, Estacionamento, Programa de desenvolvimento de Estágio</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>DCM (Estruturação)</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Suporte operacional e administrativo, Participação no processo de originação, estruturação e distribuição, Uso de ferramentas do time de DCM, Habilidade de resolver problemas, Capacidade de comunicação e trabalho em equipe, Análise crítica, Flexibilidade, Organização e atenção aos detalhes.</t>
+          <t>Controle de Qualidade</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Auxiliar analistas, Follow ups, Elaboração de relatórios, Emissão de controle de lote.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Vaga43.pdf</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fundação Estudar</t>
+          <t>Eneva</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Summer Job Voluntário</t>
+          <t>Estágio</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>São Paulo (SP)</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>São Paulo/SP</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Dados, Engenharia, Matemática</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>A combinar</t>
@@ -2142,40 +2552,50 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5 semanas, 15h semanais</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Vendas, operações, divulgação</t>
-        </is>
-      </c>
+          <t>6h/dia</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Bolsa auxílio, Plano de Saúde, Plano Odontológico, Vale Refeição, Vale Transporte ou transporte fornecido pela empresa, Seguro de Vida, Gympass, Cartão Presente de Natal, Programa de Qualidade de Vida</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Vendas, operações, divulgação</t>
+          <t>Backoffice, Novos Negócios e Portfólio</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Desenvolver habilidades importantes, vivenciar o dia a dia do negócio, seguir os comportamentos da empresa, participar das etapas do programa de estágio.</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Vaga44.pdf</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>V4 Company</t>
+          <t>Bank of America</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Assistente de Cobrança</t>
+          <t>Corporate Banking Intern</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Campinas (SP)</t>
+          <t>São Paulo (SP)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Comunicação, Comunicação</t>
+          <t>Inglês</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2188,35 +2608,49 @@
           <t>Não especificada</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Financeira</t>
-        </is>
-      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Não especificados</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Contato com clientes inadimplentes, negociação de pagamentos, controle de faturamento, emissão de boletos e notas fiscais</t>
+          <t>Corporate Banking</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Prover uma ampla gama de produtos relacionados a empréstimos e serviços financeiros para grandes corporações multinacionais e instituições financeiras.</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Vaga45.pdf</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bain &amp; Company</t>
+          <t>Safra</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AC - Associate Consultant Intern (estágio regular - 6 a 12 meses)</t>
+          <t>Estágio em Qualidade (Analytics e Dados)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Remoto</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>São Paulo (SP)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Engenharia, SQL</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>A combinar</t>
@@ -2229,41 +2663,43 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Formados</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Consultoria estratégica</t>
-        </is>
-      </c>
+          <t>Vale Refeição, Convênio médico e odontológico, J. Safra Clube</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Identificação de fontes de informação, coleta e interpretação de dados, execução de análises, apresentação de resultados, entrevistas com consumidores, supervisão de colegas.</t>
+          <t>Qualidade</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Auxiliar na apuração e construção de Dashboard em Power BI; Auxiliar na criação de novas pesquisas (SQL, Phyton e PySpark); Auxiliar no mapeamento da experiência do cliente.</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Vaga46.pdf</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>+A Educação</t>
+          <t>Agibank</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Estágio em Talent Acquisition (Atração e Seleção)</t>
+          <t>Comercial</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Remoto</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Comunicação, Comunicação, Pacote Office, Proatividade, Proatividade</t>
-        </is>
-      </c>
+          <t>Campinas (SP)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>A combinar</t>
@@ -2274,27 +2710,37 @@
           <t>Não especificada</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Recursos Humanos, Desenvolvimento, Atração e Seleção</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Vale-refeição, plano de saúde, plano odontológico, Total Pass, PPR, Tô de Dono/a, Uni Agi, folga de aniversário, Sem Climão, avaliação de performance, teleatendimento psicológico e médico, licença-maternidade e paternidade, Dr. Pet</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Encontrar, qualificar e nutrir relacionamento com talentos, mapear talentos, realizar entrevistas, auxiliar no processo de admissão, gerir plataformas de seleção.</t>
+          <t>Comercial</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Não especificadas</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Vaga47.pdf</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Rehagro</t>
+          <t>Savvi</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Estágio - Área Comercial</t>
+          <t>Estágio de Customer Success (SMB)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2302,7 +2748,11 @@
           <t>Remoto</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Git, Inglês, Marketing</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>A combinar</t>
@@ -2310,30 +2760,40 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Não especificada</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Comercial, Vendas Internas</t>
-        </is>
-      </c>
+          <t>30 horas semanais</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Trabalho remoto, Gympass, horário flexível, incentivos à capacitação</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Apoio nos processos de vendas internas, contato direto com clientes, acompanhamento de pedidos, suporte ao pós-venda, aprendizado sobre produtos e serviços, entendimento das necessidades dos clientes.</t>
+          <t>Customer Success, Marketing Digital</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Gerenciar carteira de clientes, representar a empresa, criar indicadores de saúde dos clientes, identificar oportunidades de venda, propor melhorias nos processos de customer success.</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Vaga48.pdf</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Visagio</t>
+          <t>Piperz</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Desenvolvedor(a) de Software</t>
+          <t>Estagiária em SDR Pré-vendas B2B</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2343,7 +2803,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Engenharia, Metodologias Ágeis, Programação</t>
+          <t>Comunicação, Comunicação, Git</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2356,27 +2816,41 @@
           <t>Não especificada</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Desenvolvimento profissional, horizontalidade, clima de trabalho agradável, day off, trabalho remoto</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Engenharia de Dados, Automação de Processos, Gestão de TI, Desenvolvimento de Software</t>
+          <t>Marketing, Administração, Engenharia de Produção, Comércio Exterior, Engenharia</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Desenvolvimento front-end e/ou back-end, correção de bugs, definição de tecnologias, implementação de novas ferramentas</t>
+          <t>SDR Pré-vendas B2B</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Conhecer o mercado imobiliário, mapear oportunidades, ativar potenciais parceiros, qualificar leads, conectar pré-venda com desenvolvedores, observar métricas, contribuir para jornada do cliente.</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Vaga49.pdf</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Smarthis</t>
+          <t>Rehagro</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Programa de Estágio</t>
+          <t>Estágio - Área Comercial</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2384,11 +2858,7 @@
           <t>Remoto</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Inglês, Inglês avançado, Programação</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>A combinar</t>
@@ -2399,27 +2869,41 @@
           <t>Não especificada</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Seguro de vida, Vale alimentação, Vale refeição</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Tech, RPA (Robotic Process Automation), Business Analytics</t>
+          <t>8º período</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Contribuir para entrega de soluções de automação, desenvolver soluções em RPA</t>
+          <t>Comercial, Vendas Internas</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Apoio nos processos de vendas internas, contato com clientes, acompanhamento de pedidos, suporte ao pós-venda, aprendizado sobre produtos e serviços oferecidos pelo laboratório, compreensão das necessidades dos clientes do setor de pecuária e agricultura.</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>vaga5.txt</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Radix</t>
+          <t>Nuria</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Estágio em Desenvolvimento de Negócios</t>
+          <t>Estágio em Arquitetura de Software</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2429,71 +2913,250 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Engenharia, Excel, Inglês, Inglês avançado, Problemas</t>
+          <t>C#, Comunicação, Comunicação, Engenharia, Java, Java, JavaScript, Javascript, Problemas, Programação, Python, Python</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>A combinar</t>
+          <t>R$ 1.300.00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Estágio 30h</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Desenvolvimento de Negócios</t>
-        </is>
-      </c>
+          <t>Não especificada</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Trabalho remoto, benefícios como plano de saúde, plano odontológico, Gympass, parceria com Psicologia Viva, saúde financeira, parceria com escolas de idiomas, entre outros.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Mapeamento e prospecção de oportunidades, Realizar pesquisas de mercado, Elaborar propostas técnicas-comerciais, Acompanhar equipe técnica, Representar a empresa em reuniões, Elaborar materiais de divulgação.</t>
+          <t>Arquitetura de Software</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Auxiliar na análise e definição de arquiteturas de software, colaborar com a equipe de desenvolvimento, documentar arquitetura e padrões de codificação, participar de revisões de código, resolver problemas e otimizar performance, manter-se atualizado em melhores práticas e tendências em arquitetura de software.</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Vaga50.pdf</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>Visagio</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Desenvolvedor(a) de Software</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Engenharia, Metodologias Ágeis, Programação</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>A combinar</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Não especificada</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Não especificados</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Engenharia de Dados, Automação de Processos, Gestão de TI, Desenvolvimento de Software</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Desenvolvimento front-end e/ou back-end, correção de bugs, definição de tecnologias, implementação de novas ferramentas, compartilhamento de conhecimento técnico.</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>vaga6.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Smarthis</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Programa de Estágio</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Inglês, Inglês avançado, Programação</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>A combinar</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Não especificada</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Participação dos lucros e resultados, Plano de Saúde, Plano Odontológico, Gympass, Cartão de benefícios flexíveis, Zenklub, Programa de Idiomas, Parceria com FIAP Escola de Tecnologia, Trabalho Remoto, Programa de treinamento, Plano de carreira definido, Horário flexível, Programa de mentoria, Licença parental de 6 meses</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Tecnologia, RPA (Robotic Process Automation), Business Analytics</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Desenvolver soluções em RPA, contribuir para entrega de soluções de automação, programação.</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>vaga7.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Radix</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Estágio em Desenvolvimento de Negócios</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Remoto</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Engenharia, Excel, Inglês, Inglês avançado</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>A combinar</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Estágio 30h</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Plano de Saúde, Odontológico, Médico da empresa, Gympass, Auxílio home office, VR e/ou VA, Day off de aniversário, Universidade Corporativa, Convênio com instituições de ensino e cursos de idioma, Programa de treinamentos internos</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Engenharia, Automação, Desenvolvimento de Software, TI Industrial e Consultoria</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Apoio em mapeamento e prospecção de oportunidades, pesquisas de mercado, elaboração de propostas técnicas-comerciais, acompanhamento de equipe técnica, representação da empresa em reuniões, apoio na construção de propostas comerciais e orçamentárias, elaboração de materiais de divulgação.</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>vaga8.txt</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>Liv Up</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Estágio em Growth - Business Intelligence</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Remoto</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Capacidade analítica, Comunicação, Comunicação, Excel, Inglês, Inglês avançado, PowerPoint, Python, Python, SQL</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>A combinar</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>A combinar</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>Não especificada</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Growth - Business Intelligence</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Elaborar modelos de projeção de receita e custos, elaborar modelos de projeção por canais de marketing, auxiliar na resolução de problemas, acompanhar a performance de testes de Growth, automatizar processos recorrentes, explicar resultados e alinhar planos de ação, elaborar apresentações.</t>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Vale-refeição ou alimentação, 20% de desconto nos produtos Liv Up, créditos mensais, seguro de vida, Gympass, auxílio home office</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Growth, Business Intelligence</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Elaborar modelos de projeção de receita e custos, elaborar modelos de projeção por canais de marketing, resolver problemas, acompanhar testes de Growth, identificar processos recorrentes e automatizá-los, explicar resultados, desenvolver apresentações.</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>vaga9.txt</t>
         </is>
       </c>
     </row>

--- a/simplified_job_info_gpt3.xlsx
+++ b/simplified_job_info_gpt3.xlsx
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>pelo menos 30 horas semanais</t>
+          <t>30h semanais</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
